--- a/spec/models/ASW/Eng/ETS/CoETS/CoETS_TSEACo/interfaceCoETS_TSEACo.xlsx
+++ b/spec/models/ASW/Eng/ETS/CoETS/CoETS_TSEACo/interfaceCoETS_TSEACo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="14070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
   <si>
     <t>Name</t>
   </si>
@@ -643,6 +643,42 @@
     <t>Measuring point for  Requested speed / speed limit by Tbox message</t>
   </si>
   <si>
+    <t>CoETS_tiEngLockTime_mp</t>
+  </si>
+  <si>
+    <t>Measuring point for Time threshold to act  EngSp limit</t>
+  </si>
+  <si>
+    <t>TimeEngOn_s</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>CoETS_stEngEmgcyRunTi_mp</t>
+  </si>
+  <si>
+    <t>Measuring point for the active state of Engine emergency running time</t>
+  </si>
+  <si>
+    <t>CoETS_stEngEmgcyRunCt_mp</t>
+  </si>
+  <si>
+    <t>Measuring point for   the active state of Engine emergency start request count</t>
+  </si>
+  <si>
+    <t>CoETS_tiEngEmgcySt_mp</t>
+  </si>
+  <si>
+    <t>Measuring point for Time threshold to act  Engine emergency start</t>
+  </si>
+  <si>
+    <t>CoETS_stGpsLimActive_mp</t>
+  </si>
+  <si>
+    <t>Measuring point for Tbox limit  active state</t>
+  </si>
+  <si>
     <t>CoETS_trqTSEAEngMax_C</t>
   </si>
   <si>
@@ -844,13 +880,7 @@
     <t>Time threshold to act  EngSpdn correction</t>
   </si>
   <si>
-    <t>TimeEngOn_s</t>
-  </si>
-  <si>
     <t>[120 100 80 60 50 40 20 10]</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>CoETS_tiEngLockTime_C</t>
@@ -984,10 +1014,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1063,16 +1093,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,17 +1113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,22 +1123,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,14 +1144,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,7 +1183,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,45 +1228,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1227,7 +1257,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,7 +1281,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,7 +1323,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,31 +1383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,85 +1395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,7 +1419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,15 +1583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1579,11 +1600,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1603,15 +1637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1627,17 +1652,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1650,6 +1671,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1658,10 +1688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1670,34 +1700,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1706,99 +1736,99 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2402,7 +2432,7 @@
   <sheetPr/>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -3404,7 +3434,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3704,10 +3734,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4511,26 +4541,309 @@
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:9">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="24"/>
+      <c r="A31" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="21">
+        <v>0</v>
+      </c>
+      <c r="C31" s="21">
+        <v>2147480000</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="21"/>
+      <c r="G31" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="32">
+        <v>0</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="32" ht="16.5" spans="1:9">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="24"/>
+      <c r="A32" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="21">
+        <v>0</v>
+      </c>
+      <c r="C32" s="21">
+        <v>1</v>
+      </c>
+      <c r="D32" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>179</v>
+      </c>
       <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="32"/>
+      <c r="G32" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="32">
+        <v>0</v>
+      </c>
       <c r="I32" s="21"/>
+    </row>
+    <row r="33" ht="33" spans="1:9">
+      <c r="A33" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="21">
+        <v>0</v>
+      </c>
+      <c r="C33" s="21">
+        <v>1</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="32">
+        <v>0</v>
+      </c>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:9">
+      <c r="A34" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="21">
+        <v>0</v>
+      </c>
+      <c r="C34" s="21">
+        <v>2147480000</v>
+      </c>
+      <c r="D34" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="32">
+        <v>0</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:9">
+      <c r="A35" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="21">
+        <v>0</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="32">
+        <v>0</v>
+      </c>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" ht="16.5" spans="1:9">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" ht="16.5" spans="1:9">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" ht="16.5" spans="1:9">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" ht="16.5" spans="1:9">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:9">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:9">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" ht="16.5" spans="1:9">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" ht="16.5" spans="1:9">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:9">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" ht="16.5" spans="1:9">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" ht="16.5" spans="1:9">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" ht="16.5" spans="1:9">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" ht="16.5" spans="1:9">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" ht="16.5" spans="1:9">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" ht="16.5" spans="1:9">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" ht="16.5" spans="1:9">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4544,8 +4857,8 @@
   <sheetPr/>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4589,7 +4902,7 @@
     </row>
     <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="21" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B2" s="21">
         <v>-3276</v>
@@ -4616,7 +4929,7 @@
     </row>
     <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B3" s="21">
         <v>-3276</v>
@@ -4643,7 +4956,7 @@
     </row>
     <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="21" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B4" s="21">
         <v>0</v>
@@ -4655,7 +4968,7 @@
         <v>-1</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21" t="s">
@@ -4668,7 +4981,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="21" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B5" s="21">
         <v>0</v>
@@ -4680,7 +4993,7 @@
         <v>-1</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22" t="s">
@@ -4695,7 +5008,7 @@
     </row>
     <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="21" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B6" s="21">
         <v>0</v>
@@ -4707,7 +5020,7 @@
         <v>-1</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22" t="s">
@@ -4722,7 +5035,7 @@
     </row>
     <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="21" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B7" s="21">
         <v>0</v>
@@ -4734,7 +5047,7 @@
         <v>-1</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
@@ -4747,7 +5060,7 @@
     </row>
     <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="21" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B8" s="21">
         <v>0</v>
@@ -4759,7 +5072,7 @@
         <v>-1</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21" t="s">
@@ -4772,7 +5085,7 @@
     </row>
     <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="21" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B9" s="21">
         <v>0</v>
@@ -4784,7 +5097,7 @@
         <v>-1</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21" t="s">
@@ -4797,7 +5110,7 @@
     </row>
     <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="21" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B10" s="21">
         <v>0</v>
@@ -4809,7 +5122,7 @@
         <v>-1</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21" t="s">
@@ -4822,7 +5135,7 @@
     </row>
     <row r="11" ht="16.5" spans="1:15">
       <c r="A11" s="21" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B11" s="21">
         <v>0</v>
@@ -4834,7 +5147,7 @@
         <v>-1</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
@@ -4853,7 +5166,7 @@
     </row>
     <row r="12" ht="16.5" spans="1:9">
       <c r="A12" s="21" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B12" s="21">
         <v>0</v>
@@ -4865,22 +5178,22 @@
         <v>-1</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="24" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H12" s="21">
         <v>100</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:9">
       <c r="A13" s="21" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B13" s="21">
         <v>0</v>
@@ -4892,22 +5205,22 @@
         <v>-1</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="24" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H13" s="21">
         <v>100</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:9">
       <c r="A14" s="21" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B14" s="21">
         <v>0</v>
@@ -4919,22 +5232,22 @@
         <v>-1</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="25" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H14" s="21">
         <v>100</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:9">
       <c r="A15" s="21" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B15" s="21">
         <v>0</v>
@@ -4946,22 +5259,22 @@
         <v>-1</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="25" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H15" s="21">
         <v>100</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:9">
       <c r="A16" s="21" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B16" s="21">
         <v>0</v>
@@ -4973,7 +5286,7 @@
         <v>-1</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
@@ -4988,7 +5301,7 @@
     </row>
     <row r="17" ht="16.5" spans="1:9">
       <c r="A17" s="21" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B17" s="21">
         <v>0</v>
@@ -5011,7 +5324,7 @@
     </row>
     <row r="18" ht="16.5" spans="1:9">
       <c r="A18" s="21" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B18" s="21">
         <v>0</v>
@@ -5038,7 +5351,7 @@
     </row>
     <row r="19" ht="16.5" spans="1:9">
       <c r="A19" s="21" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B19" s="21">
         <v>0</v>
@@ -5050,7 +5363,7 @@
         <v>-1</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
@@ -5065,7 +5378,7 @@
     </row>
     <row r="20" ht="16.5" spans="1:9">
       <c r="A20" s="21" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B20" s="21">
         <v>0</v>
@@ -5077,7 +5390,7 @@
         <v>-1</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
@@ -5092,7 +5405,7 @@
     </row>
     <row r="21" ht="16.5" spans="1:9">
       <c r="A21" s="21" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B21" s="21">
         <v>0</v>
@@ -5104,7 +5417,7 @@
         <v>-1</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
@@ -5119,7 +5432,7 @@
     </row>
     <row r="22" ht="16.5" spans="1:9">
       <c r="A22" s="21" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B22" s="21">
         <v>0</v>
@@ -5131,7 +5444,7 @@
         <v>-1</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="s">
@@ -5146,7 +5459,7 @@
     </row>
     <row r="23" ht="33" spans="1:9">
       <c r="A23" s="21" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B23" s="21">
         <v>0</v>
@@ -5171,7 +5484,7 @@
     </row>
     <row r="24" ht="33" spans="1:9">
       <c r="A24" s="21" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B24" s="21">
         <v>0</v>
@@ -5183,7 +5496,7 @@
         <v>-1</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22" t="s">
@@ -5196,7 +5509,7 @@
     </row>
     <row r="25" ht="33" spans="1:9">
       <c r="A25" s="21" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B25" s="21">
         <v>0</v>
@@ -5221,7 +5534,7 @@
     </row>
     <row r="26" ht="33" spans="1:9">
       <c r="A26" s="21" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B26" s="21">
         <v>0</v>
@@ -5233,7 +5546,7 @@
         <v>-1</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22" t="s">
@@ -5246,7 +5559,7 @@
     </row>
     <row r="27" ht="33" spans="1:9">
       <c r="A27" s="21" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B27" s="21">
         <v>0</v>
@@ -5258,7 +5571,7 @@
         <v>-1</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22" t="s">
@@ -5271,7 +5584,7 @@
     </row>
     <row r="28" ht="16.5" spans="1:9">
       <c r="A28" s="21" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B28" s="21">
         <v>0</v>
@@ -5296,7 +5609,7 @@
     </row>
     <row r="29" ht="16.5" spans="1:9">
       <c r="A29" s="21" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B29" s="21">
         <v>0</v>
@@ -5321,7 +5634,7 @@
     </row>
     <row r="30" ht="16.5" spans="1:9">
       <c r="A30" s="21" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B30" s="21">
         <v>0</v>
@@ -5346,7 +5659,7 @@
     </row>
     <row r="31" ht="16.5" spans="1:9">
       <c r="A31" s="21" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B31" s="21">
         <v>0</v>
@@ -5371,7 +5684,7 @@
     </row>
     <row r="32" ht="16.5" spans="1:9">
       <c r="A32" s="21" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B32" s="21">
         <v>0</v>
@@ -5383,7 +5696,7 @@
         <v>-1</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
@@ -5396,7 +5709,7 @@
     </row>
     <row r="33" ht="16.5" spans="1:9">
       <c r="A33" s="21" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B33" s="21">
         <v>0</v>
@@ -5421,7 +5734,7 @@
     </row>
     <row r="34" ht="16.5" spans="1:9">
       <c r="A34" s="21" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B34" s="21">
         <v>0</v>
@@ -5446,7 +5759,7 @@
     </row>
     <row r="35" ht="16.5" spans="1:9">
       <c r="A35" s="21" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B35" s="21">
         <v>0</v>
@@ -5471,7 +5784,7 @@
     </row>
     <row r="36" ht="16.5" spans="1:9">
       <c r="A36" s="21" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B36" s="21">
         <v>0</v>
@@ -5496,7 +5809,7 @@
     </row>
     <row r="37" ht="16.5" spans="1:9">
       <c r="A37" s="21" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B37" s="21">
         <v>0</v>
@@ -5521,25 +5834,25 @@
     </row>
     <row r="38" ht="16.5" spans="1:8">
       <c r="A38" s="26" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D38" s="21">
         <v>-1</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="29" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:9">
       <c r="A39" s="21" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B39" s="21">
         <v>-45</v>
@@ -5548,17 +5861,17 @@
         <v>200</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28" t="s">
         <v>76</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>77</v>
@@ -5566,7 +5879,7 @@
     </row>
     <row r="40" ht="16.5" spans="1:9">
       <c r="A40" s="21" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B40" s="21">
         <v>0</v>
@@ -5575,25 +5888,25 @@
         <v>2147480000</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="1:9">
       <c r="A41" s="21" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B41" s="21">
         <v>0</v>
@@ -5605,22 +5918,22 @@
         <v>-1</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="28" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="H41" s="28">
         <v>10</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="1:9">
       <c r="A42" s="21" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B42" s="21">
         <v>-50</v>
@@ -5632,7 +5945,7 @@
         <v>-1</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="28" t="s">
@@ -5647,7 +5960,7 @@
     </row>
     <row r="43" ht="16.5" spans="1:9">
       <c r="A43" s="21" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B43" s="21">
         <v>0</v>
@@ -5659,22 +5972,22 @@
         <v>-1</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="28" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="H43" s="28">
         <v>600</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:9">
       <c r="A44" s="21" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B44" s="21">
         <v>0</v>
@@ -5686,11 +5999,11 @@
         <v>-1</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H44" s="28">
         <v>10</v>
@@ -5699,7 +6012,7 @@
     </row>
     <row r="45" ht="16.5" spans="1:9">
       <c r="A45" s="21" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B45" s="21">
         <v>0</v>
@@ -5711,22 +6024,22 @@
         <v>-1</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="H45" s="28">
         <v>5</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="1:9">
       <c r="A46" s="21" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B46" s="21">
         <v>0</v>
@@ -5738,7 +6051,7 @@
         <v>-1</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21" t="s">
@@ -5751,7 +6064,7 @@
     </row>
     <row r="47" ht="16.5" spans="1:9">
       <c r="A47" s="21" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B47" s="21">
         <v>0</v>
@@ -5763,7 +6076,7 @@
         <v>-1</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21" t="s">
@@ -5776,7 +6089,7 @@
     </row>
     <row r="48" ht="16.5" spans="1:9">
       <c r="A48" s="28" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B48" s="21">
         <v>0</v>
@@ -5788,7 +6101,7 @@
         <v>-1</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="21" t="s">
@@ -5801,7 +6114,7 @@
     </row>
     <row r="49" ht="16.5" spans="1:9">
       <c r="A49" s="28" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B49" s="31">
         <v>0</v>
@@ -5813,7 +6126,7 @@
         <v>-1</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28" t="s">
@@ -5826,7 +6139,7 @@
     </row>
     <row r="50" ht="16.5" spans="1:9">
       <c r="A50" s="21" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B50" s="21">
         <v>0</v>
@@ -5838,7 +6151,7 @@
         <v>-1</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21" t="s">
@@ -5853,7 +6166,7 @@
     </row>
     <row r="51" ht="16.5" spans="1:9">
       <c r="A51" s="21" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B51" s="21">
         <v>0</v>
@@ -5865,7 +6178,7 @@
         <v>-1</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21" t="s">
@@ -5927,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>4</v>
@@ -5966,38 +6279,38 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B1" s="18"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="18" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" ht="46.15" customHeight="1" spans="1:1">
       <c r="A4" s="17" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="17" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="17" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="17" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:2">
@@ -6023,7 +6336,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -6037,17 +6350,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="17" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="17" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="17" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6076,16 +6389,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -6096,10 +6409,10 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -6112,16 +6425,16 @@
     </row>
     <row r="5" ht="14.25" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4">
